--- a/ValueSet-NoYesUnknownVS.xlsx
+++ b/ValueSet-NoYesUnknownVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T16:55:27-03:00</t>
+    <t>2023-10-25T16:05:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-NoYesUnknownVS.xlsx
+++ b/ValueSet-NoYesUnknownVS.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ValueSet Sim, Não e Desconhecido</t>
+    <t>ValueSet Yes, No and Unknown</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T16:05:12-03:00</t>
+    <t>2023-11-21T18:47:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Valueset com respostas Sim, Não e Desconhecido (yes, no and unknown)</t>
+    <t>ValueSet with responses Yes, No, and Unknown</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -102,19 +102,19 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Sim | Yes</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Não | No</t>
+    <t>No</t>
   </si>
   <si>
     <t>UNK</t>
   </si>
   <si>
-    <t>Desconhecido | Unknown</t>
+    <t>Unknown</t>
   </si>
   <si>
     <t/>

--- a/ValueSet-NoYesUnknownVS.xlsx
+++ b/ValueSet-NoYesUnknownVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T18:47:54-03:00</t>
+    <t>2023-11-21T19:08:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-NoYesUnknownVS.xlsx
+++ b/ValueSet-NoYesUnknownVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>0.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ValueSet Yes, No and Unknown</t>
+    <t>Yes, No and Unknown</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T19:08:35-03:00</t>
+    <t>2024-01-16T20:08:55-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-NoYesUnknownVS.xlsx
+++ b/ValueSet-NoYesUnknownVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T20:08:55-03:00</t>
+    <t>2024-01-17T07:29:27-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
